--- a/Testing documentation.xlsx
+++ b/Testing documentation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECQ1046\Desktop\Coding assignment\Oppenheimer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C203B841-E6D8-4B33-B9C1-C60343C82773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE472B8-AF1C-4180-9AA6-B7CAC990E12A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory1" sheetId="1" r:id="rId1"/>
     <sheet name="UserStory2" sheetId="2" r:id="rId2"/>
     <sheet name="UserStory3" sheetId="3" r:id="rId3"/>
-    <sheet name="Userstory 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Userstory 4" sheetId="6" r:id="rId4"/>
     <sheet name="Userstory 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="221">
   <si>
     <t>Testcase</t>
   </si>
@@ -854,166 +854,6 @@
   </si>
   <si>
     <t>Test case failed as data can still be uploaded even though it should not accept data which already exists in the table</t>
-  </si>
-  <si>
-    <t>Querying GET Tax Relief data with input of boundary values for age</t>
-  </si>
-  <si>
-    <t>[
-        {
-                    "birthday": "17012004"
-            "gender": "F",
-            "name": "TesterA",
-            "natid": "s12345678a",
-            "salary": "8000",
-            "tax": "2000"
-            }
-        ]
-[
-        {
-                    "birthday": "17012003"
-            "gender": "F",
-            "name": "TesterB",
-            "natid": "s23456789b",
-            "salary": "8000",
-            "tax": "2000"
-            },
-        {
-                    "birthday": "17011987"
-            "gender": "F",
-            "name": "TesterC",
-            "natid": "s34567890c",
-            "salary": "8000",
-            "tax": "2000"
-            }
-        ]
-[
-        {
-                    "birthday": "17011986"
-            "gender": "F",
-            "name": "TesterD",
-            "natid": "s45678901d",
-            "salary": "8000",
-            "tax": "2000"
-            },
-        {
-                    "birthday": "17011972"
-            "gender": "F",
-            "name": "TesterE",
-            "natid": "s56789012e",
-            "salary": "8000",
-            "tax": "2000"
-            }
-        ]
-[
-        {
-                    "birthday": "17011971"
-            "gender": "F",
-            "name": "TesterF",
-            "natid": "s67890123f",
-            "salary": "8000",
-            "tax": "2000"
-            },
-        {
-                    "birthday": "17011947"
-            "gender": "F",
-            "name": "TesterG",
-            "natid": "s78901234g",
-            "salary": "8000",
-            "tax": "2000"
-            }
-        ]
-[
-        {
-                    "birthday": "17011946"
-            "gender": "F",
-            "name": "TesterH",
-            "natid": "s89012345h",
-            "salary": "8000",
-            "tax": "2000"
-            }
-        ]</t>
-  </si>
-  <si>
-    <t>Natid retrieved from response to be masked with $ for each character except first 4 characters, name to exist within response and taxrelief from response to follow specifications in User Story</t>
-  </si>
-  <si>
-    <t>Querying GET Tax Relief data with input of both genders</t>
-  </si>
-  <si>
-    <t>[
-        {
-                    "birthday": "17012003"
-            "gender": "F",
-            "name": "TesterA",
-            "natid": "s12345678a",
-            "salary": "8000",
-            "tax": "2000"
-            },
-        {
-                    "birthday": "17012003"
-            "gender": "M",
-            "name": "TesterB",
-            "natid": "s23456789b",
-            "salary": "8000",
-            "tax": "2000"
-            }
-        ]</t>
-  </si>
-  <si>
-    <t>Testing the difference in gender bonus</t>
-  </si>
-  <si>
-    <t>Querying GET Tax Relief data with tax relief amount between 0 and 50</t>
-  </si>
-  <si>
-    <t>[
-        {
-                    "birthday": "17012003"
-            "gender": "M",
-            "name": "TesterA",
-            "natid": "s12345678a",
-            "salary": "316",
-            "tax": "300"
-            },
-        {
-                    "birthday": "17012003"
-            "gender": "M",
-            "name": "TesterB",
-            "natid": "s23456789b",
-            "salary": "352",
-            "tax": "300"
-            }
-        ]</t>
-  </si>
-  <si>
-    <t>Testing for tax relief that meets the criteria for relief floor</t>
-  </si>
-  <si>
-    <t>Querying GET Tax Releif data with tax relief data with multiple decimal places</t>
-  </si>
-  <si>
-    <t>[
-        {
-                    "birthday": "17012003"
-            "gender": "M",
-            "name": "TesterA",
-            "natid": "s12345678a",
-            "salary": "8123",
-            "tax": "3214.321"
-            },
-        {
-                    "birthday": "17012003"
-            "gender": "M",
-            "name": "TesterB",
-            "natid": "s23456789b",
-            "salary": "8321",
-            "tax": "2137.123"
-            }
-        ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing for decimals truncation and rounding. Testcase failed as service did not do rounding even though it was an AC. </t>
   </si>
   <si>
     <t>Verifying color of button, and subsequent page after clicking button to have specified text with Chrome</t>
@@ -1112,9 +952,6 @@
     <t>Test case failed as data can still be uploaded even though it does not make sense to have individuals that has birthdates in the future, or are of very young ages.</t>
   </si>
   <si>
-    <t>Testing the boundary values given for each age range</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
@@ -1142,32 +979,274 @@
   </si>
   <si>
     <t>1.	Ensure that OppenheimerProjectDev.jar exists on your local machine and run java -jar "{Path to Jar File}/OppenheimerProjectDev.jar" on local cmd terminal
-2.	Calculate tax relief for each individual using formula given
-3.	Call webservice at http://localhost:8080/calculator/insertMultiple and send POST request with input data
-4.	Call webservice at http://localhost:8080/calculator/taxRelief and send GET request to fetch calculated tax relief and masked natid
-5.	Validate for masked natid and tax relief using values generated in step 2.</t>
-  </si>
-  <si>
-    <t>1.	Ensure that OppenheimerProjectDev.jar exists on your local machine and run java -jar "{Path to Jar File}/OppenheimerProjectDev.jar" on local cmd terminal
-2.	Calculate tax relief for each individual using formula given
-3.	Call webservice at http://localhost:8080/calculator/insertMultiple and send POST request with input data
-4.	Call webservice at http://localhost:8080/calculator/taxRelief and send GET request to fetch calculated tax relief and masked natid
-5.	Validate for masked natid and tax relief using values generated in step 2.
-6.	Repeat steps 1-5 for each range of ages as defined in user story</t>
-  </si>
-  <si>
-    <t>1.	Ensure that OppenheimerProjectDev.jar exists on your local machine and run java -jar "{Path to Jar File}/OppenheimerProjectDev.jar" on local cmd terminal
 2.	Open browser of choice and navigate to http://localhost:8080/
 3.	Verify that button with text ‘Dispense Now’ is red colored and is worded exactly as required
 4.	Click on the button described in step 3.
 5.	Verify that page is redirected to one with text ‘Cash dispensed’</t>
+  </si>
+  <si>
+    <t>Input of boundary values for age for input values and for some invalid input data</t>
+  </si>
+  <si>
+    <t>birthday=01012005</t>
+  </si>
+  <si>
+    <t>birthday=01012004</t>
+  </si>
+  <si>
+    <t>birthday=01011988</t>
+  </si>
+  <si>
+    <t>birthday=01011987</t>
+  </si>
+  <si>
+    <t>birthday=01011973</t>
+  </si>
+  <si>
+    <t>birthday=01011972</t>
+  </si>
+  <si>
+    <t>birthday=01011948</t>
+  </si>
+  <si>
+    <t>birthday=01011947</t>
+  </si>
+  <si>
+    <t>birthday=01012022</t>
+  </si>
+  <si>
+    <t>birthday=01012024</t>
+  </si>
+  <si>
+    <t>birthday=01011874</t>
+  </si>
+  <si>
+    <t>birthday=abcdef</t>
+  </si>
+  <si>
+    <t>birthday=!@#$%^</t>
+  </si>
+  <si>
+    <t>birthday=20050101</t>
+  </si>
+  <si>
+    <t>Invalid date format</t>
+  </si>
+  <si>
+    <t>Birthday as special characters</t>
+  </si>
+  <si>
+    <t>Birthday as characters</t>
+  </si>
+  <si>
+    <t>Input of valid gender characters</t>
+  </si>
+  <si>
+    <t>Gender = M</t>
+  </si>
+  <si>
+    <t>Gender = F</t>
+  </si>
+  <si>
+    <t>Gender = m</t>
+  </si>
+  <si>
+    <t>Gender = f</t>
+  </si>
+  <si>
+    <t>Gender = T</t>
+  </si>
+  <si>
+    <t>Gender = Male</t>
+  </si>
+  <si>
+    <t>Gender = Female</t>
+  </si>
+  <si>
+    <t>Gender = 1234567</t>
+  </si>
+  <si>
+    <t>Gender = !@#$%^&amp;</t>
+  </si>
+  <si>
+    <t>Input of invalid character T as gender</t>
+  </si>
+  <si>
+    <t>Input of string as gender</t>
+  </si>
+  <si>
+    <t>Input of digits as gender</t>
+  </si>
+  <si>
+    <t>Input of special character as gender</t>
+  </si>
+  <si>
+    <t>Calculation of tax relief = 0</t>
+  </si>
+  <si>
+    <t>Calculation of tax relief = 1</t>
+  </si>
+  <si>
+    <t>Calculation of tax relief = 49</t>
+  </si>
+  <si>
+    <t>Calculation of tax relief = 50</t>
+  </si>
+  <si>
+    <t>Calculation of tax relief = 51</t>
+  </si>
+  <si>
+    <t>Calculation of tax relief is negative</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 10000</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9999</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9951</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9950</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9949</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 10001</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .00</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .01</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .26</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .49</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .50</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .51</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .74</t>
+  </si>
+  <si>
+    <t>Calculation for tax relief where decimals end in .99</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9900</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9899.99</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9899.74</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9899.51</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9899.50</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9899.49</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9899.26</t>
+  </si>
+  <si>
+    <t>Salary = 10000
+Tax = 9899.01</t>
+  </si>
+  <si>
+    <t>Input data tests for age being one years old, which does not make sense regarding having a salary and paying taxes. End point returns status 202 instead of 500</t>
+  </si>
+  <si>
+    <t>Input data tests for birthdate being one year into the future. This should not occur as it is a future event/date.End point returns status 202 instead of 500</t>
+  </si>
+  <si>
+    <t>Input data tests for age being 150 years old, which should not happen. End point returns status 202 instead of 500</t>
+  </si>
+  <si>
+    <t>Failed execution as invalid gender of character 'T' was passed successfully to the end point call without getting rejection message or status code</t>
+  </si>
+  <si>
+    <t>End point should be rejected scenario where tax is greater than salary as tax relief would be of negative value. Instead end point returns status 202</t>
+  </si>
+  <si>
+    <t>When tax relief is calculated to be 0 (zero), tax relief that is calculated by service is observed to be 25% of salary instead of expected value</t>
+  </si>
+  <si>
+    <t>It is expected that the tax relief 100.5 is rounded up to 101. However, due to python function round(), it is rounded to nearest even number, being 100</t>
+  </si>
+  <si>
+    <t>Service is expected to round decimals from 0.51-0.99 to be rounded up to nearest whole number. However, the service does not round the tax relief number up.</t>
+  </si>
+  <si>
+    <t>Expected that tax relief by service is round down to nearest whole number</t>
+  </si>
+  <si>
+    <t>Expected that tax relief by service is round up to nearest whole number</t>
+  </si>
+  <si>
+    <t>Expected that tax relief calculated by the service is zero</t>
+  </si>
+  <si>
+    <t>Expected that tax relief calculated by the service is 50</t>
+  </si>
+  <si>
+    <t>Expected that tax relief calculated by the service is 51</t>
+  </si>
+  <si>
+    <t>Expected that the service will reject a scenario where tax &gt; salary and return some error message/status code</t>
+  </si>
+  <si>
+    <t>Expected that tax relief is calculated for gender bonus</t>
+  </si>
+  <si>
+    <t>Expected that service rejects invalid gender input with error message/status code</t>
+  </si>
+  <si>
+    <t>Expected that service calculates tax relief based on taxpayer's age and appropriate age variable</t>
+  </si>
+  <si>
+    <t>Expected that service rejects invalid birthday input as age would be too small or too large</t>
+  </si>
+  <si>
+    <t>Expected that service would reject invalid birthday datatypes with error message/status code</t>
+  </si>
+  <si>
+    <t>1.	Ensure that OppenheimerProjectDev.jar exists on your local machine and run java -jar "{Path to Jar File}/OppenheimerProjectDev.jar" on local cmd terminal
+2.	Call webservice at http://localhost:8080/calculator/insertMultiple and send POST request with input data
+3.	Call webservice at http://localhost:8080/calculator/taxRelief to fetch calculated tax relief
+4.	Validate that tax relief calculated by service is correct according to formula provided by acceptance criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1217,6 +1296,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1276,13 +1362,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1291,9 +1378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1316,19 +1400,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1548,8 +1646,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1572,10 +1670,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1603,11 +1701,11 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>149</v>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
@@ -1632,8 +1730,8 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1657,8 +1755,8 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1682,8 +1780,8 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1795,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -1710,8 +1808,8 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1735,8 +1833,8 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1750,7 +1848,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -1763,8 +1861,8 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1789,8 +1887,8 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1815,8 +1913,8 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1841,8 +1939,8 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1867,8 +1965,8 @@
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1892,8 +1990,8 @@
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1907,7 +2005,7 @@
         <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -1920,8 +2018,8 @@
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1945,8 +2043,8 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1960,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -1973,8 +2071,8 @@
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1988,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,7 +2109,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2035,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2066,11 +2164,11 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>150</v>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>47</v>
@@ -2095,8 +2193,8 @@
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2110,7 +2208,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2123,8 +2221,8 @@
       <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2148,8 +2246,8 @@
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2173,8 +2271,8 @@
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2198,8 +2296,8 @@
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2223,8 +2321,8 @@
       <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2238,7 +2336,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2251,8 +2349,8 @@
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2276,8 +2374,8 @@
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2291,7 +2389,7 @@
         <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2304,8 +2402,8 @@
       <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2329,8 +2427,8 @@
       <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2354,8 +2452,8 @@
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2379,8 +2477,8 @@
       <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2404,8 +2502,8 @@
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2429,8 +2527,8 @@
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2444,7 +2542,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2457,8 +2555,8 @@
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2472,7 +2570,7 @@
         <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2485,8 +2583,8 @@
       <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2598,7 @@
         <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2618,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2542,10 +2640,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2573,11 +2671,11 @@
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>151</v>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>72</v>
@@ -2602,8 +2700,8 @@
       <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2627,8 +2725,8 @@
       <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2652,9 +2750,9 @@
       <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="13" t="s">
-        <v>152</v>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>80</v>
@@ -2679,8 +2777,8 @@
       <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
@@ -2704,8 +2802,8 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2719,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2732,8 +2830,8 @@
       <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2747,7 +2845,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2760,8 +2858,8 @@
       <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2785,8 +2883,8 @@
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
@@ -2810,8 +2908,8 @@
       <c r="C11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>80</v>
       </c>
@@ -2835,8 +2933,8 @@
       <c r="C12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,8 +2958,8 @@
       <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
@@ -2885,8 +2983,8 @@
       <c r="C14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
@@ -2910,8 +3008,8 @@
       <c r="C15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
@@ -2935,8 +3033,8 @@
       <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
@@ -2960,8 +3058,8 @@
       <c r="C17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>80</v>
       </c>
@@ -2985,8 +3083,8 @@
       <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>80</v>
       </c>
@@ -3013,8 +3111,8 @@
       <c r="C19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1" t="s">
         <v>80</v>
       </c>
@@ -3028,7 +3126,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3041,8 +3139,8 @@
       <c r="C20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
@@ -3071,24 +3169,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A35A641-0413-45C4-A68E-79C066FA7DA1}">
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="38.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3099,10 +3200,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -3120,129 +3221,777 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="20"/>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="20"/>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="20"/>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="20"/>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="J35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E3:E5"/>
+  <mergeCells count="22">
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E2:E38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="D2:D38"/>
+    <mergeCell ref="H2:H15"/>
+    <mergeCell ref="H16:H24"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A16:A24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{6CB99DA9-840A-466F-9E38-C8D746EDB85C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3255,7 +4004,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3275,10 +4024,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -3301,23 +4050,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>155</v>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -3328,19 +4077,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
@@ -3351,19 +4100,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>

--- a/Testing documentation.xlsx
+++ b/Testing documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECQ1046\Desktop\Coding assignment\Oppenheimer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE472B8-AF1C-4180-9AA6-B7CAC990E12A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC0C66-A36B-4726-8A35-F0ABADFFFA79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="215">
   <si>
     <t>Testcase</t>
   </si>
@@ -838,9 +838,6 @@
     <t>InputDataInvalidTaxGreaterThanSalary.csv</t>
   </si>
   <si>
-    <t>Test case failed as data can still be uploaded even though it does not make sense to have individuals that pay taxes higher than their salary</t>
-  </si>
-  <si>
     <t>Logical error Birthdate in future</t>
   </si>
   <si>
@@ -853,9 +850,6 @@
     <t>InputDataInvalidRecordAlreadyExists.csv</t>
   </si>
   <si>
-    <t>Test case failed as data can still be uploaded even though it should not accept data which already exists in the table</t>
-  </si>
-  <si>
     <t>Verifying color of button, and subsequent page after clicking button to have specified text with Chrome</t>
   </si>
   <si>
@@ -881,75 +875,6 @@
   </si>
   <si>
     <t>Database to have no entries. Webpage to have text 'No records at the moment'</t>
-  </si>
-  <si>
-    <t>Testcase has failed as the webservice still returns status 202 when there is an additional field. It should refuse to add the data to the table and return status 500 or some error instead</t>
-  </si>
-  <si>
-    <t>Testcase has failed as the webservice still returns status 202 when missing field gender. It should refuse to add the data to the table and return status 500 or some error instead</t>
-  </si>
-  <si>
-    <t>Testcase has failed as it is a logical error to have tax amount greater than salary but service still returns status 202. There should be checks/constraints that calculate the limits tax being greater than salary</t>
-  </si>
-  <si>
-    <t>Testcase has failed as it is a logical error to be able to implement 2 taxation events for the same individual. Service should handle it by informing user that data already exists on unique identifier such as natid</t>
-  </si>
-  <si>
-    <t>Testcase has failed as it is a logical error to have entry of birthday in the future. It should include checks to prevent such values</t>
-  </si>
-  <si>
-    <t>Testcase has failed as status returned was 202. Should be expecting error message/status as no value was sent</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Testcase has failed as it is expected that the web service is able to recognise additional data and flag it as an </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> or throw a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> warning </t>
-    </r>
-  </si>
-  <si>
-    <t>Testcase has failed although one of the entry values has a missing field, service still returns status 202. Can consider this as expected with business sign off as gender may be negligible in the context</t>
-  </si>
-  <si>
-    <t>Testcase has failed as it is a logical error to have tax amount greater than salary but service still return 202. There should be checks to ensure tax is not higher than salary.</t>
-  </si>
-  <si>
-    <t>Test case failed as it is expected that the service will not support other file types than .csv. However, the original file was a csv file saved to pdf format which can explain why it still worked. Could possibly include constraints to reject non-csv files</t>
-  </si>
-  <si>
-    <t>Test case failed as it is expected that the service will not support other file types than .csv. However, the original file was a csv file saved to xls format which can explain why it still worked. Could possibly include constraints to reject non-csv files</t>
-  </si>
-  <si>
-    <t>Test case failed as data can still be uploaded even though it does not make sense to have individuals that has birthdates in the future, or are of very young ages.</t>
   </si>
   <si>
     <t>Test Steps</t>
@@ -1179,28 +1104,7 @@
 Tax = 9899.01</t>
   </si>
   <si>
-    <t>Input data tests for age being one years old, which does not make sense regarding having a salary and paying taxes. End point returns status 202 instead of 500</t>
-  </si>
-  <si>
-    <t>Input data tests for birthdate being one year into the future. This should not occur as it is a future event/date.End point returns status 202 instead of 500</t>
-  </si>
-  <si>
-    <t>Input data tests for age being 150 years old, which should not happen. End point returns status 202 instead of 500</t>
-  </si>
-  <si>
-    <t>Failed execution as invalid gender of character 'T' was passed successfully to the end point call without getting rejection message or status code</t>
-  </si>
-  <si>
-    <t>End point should be rejected scenario where tax is greater than salary as tax relief would be of negative value. Instead end point returns status 202</t>
-  </si>
-  <si>
     <t>When tax relief is calculated to be 0 (zero), tax relief that is calculated by service is observed to be 25% of salary instead of expected value</t>
-  </si>
-  <si>
-    <t>It is expected that the tax relief 100.5 is rounded up to 101. However, due to python function round(), it is rounded to nearest even number, being 100</t>
-  </si>
-  <si>
-    <t>Service is expected to round decimals from 0.51-0.99 to be rounded up to nearest whole number. However, the service does not round the tax relief number up.</t>
   </si>
   <si>
     <t>Expected that tax relief by service is round down to nearest whole number</t>
@@ -1240,13 +1144,58 @@
 2.	Call webservice at http://localhost:8080/calculator/insertMultiple and send POST request with input data
 3.	Call webservice at http://localhost:8080/calculator/taxRelief to fetch calculated tax relief
 4.	Validate that tax relief calculated by service is correct according to formula provided by acceptance criteria</t>
+  </si>
+  <si>
+    <t>It is expected that the service is able to identify an additional field within the input data, and reject the request with a rejection message/status code. Would be ideal to add constraints regarding input data fields</t>
+  </si>
+  <si>
+    <t>When the input data is missing a field, it is expected that the service is able to identify this missing data, and reject the request with a rejection message/status code. There should be checks to ensure the input data has consistent fields</t>
+  </si>
+  <si>
+    <t>It is expected that the service is able to identify that a case such as having tax &gt; salary should not occur and reject the input data with an error message/status code. There should be checks/constraints that calculate and limits tax being greater than salary</t>
+  </si>
+  <si>
+    <t>When we submit the same input data twice, we expect the service to be able to identify that the individual has already been recorded within the database and throw a rejection message/status code. There should be constraints that limit duplicates on unique identifiers, which in this case, could be natid</t>
+  </si>
+  <si>
+    <t>When input data has birthday being in the future, we expect the service to be able to identify this as an error and throw some error message to the user. There should be constraints to limit such dates and inform the user to check their birthdays input</t>
+  </si>
+  <si>
+    <t>When the service is called without any input data, the application should be able to return a warning that input data is entirely missing. Error messages may not be required as it would not inject any new data.</t>
+  </si>
+  <si>
+    <t>It is assumed that the service is only able to accept .csv files and would reject .pdf files being uploaded via the UI. If this is the case, the service should reject other file types an return an error message/status code</t>
+  </si>
+  <si>
+    <t>It is assumed that the service is only able to accept .csv files and would reject .xls files being uploaded via the UI. If this is the case, the service should reject other file types an return an error message/status code</t>
+  </si>
+  <si>
+    <t>End point should be rejected scenario where tax is greater than salary as tax relief would be of negative value. End point should return an error message/status code but instead returns status code 202 (Accepted)</t>
+  </si>
+  <si>
+    <t>Failed execution as invalid gender of character 'T' was passed successfully to the end point call without getting rejection message or status code. There should be constraints regarding what characters can be accepted by the application</t>
+  </si>
+  <si>
+    <t>It is expected that the tax relief 100.5 is rounded up to 101. However, due to python function round(), it is rounded to nearest even number, being 100. Service also return tax relief = 100, when 100.5 should be rounded up to 101</t>
+  </si>
+  <si>
+    <t>Service is expected to round decimals from 0.51-0.99 to be rounded up to nearest whole number. However, the service does not round the tax relief number up</t>
+  </si>
+  <si>
+    <t>Input data tests for age being one years old, which does not make sense regarding having a salary and paying taxes. There should be checks to catch such input data and return an error message/status code. Instead service returns status code 202 (Accepted)</t>
+  </si>
+  <si>
+    <t>Input data tests for birthdate being one year into the future. This should not occur as it is a future event/date. Service should be able to identify invalid dates and throw an error message/status code.</t>
+  </si>
+  <si>
+    <t>Input data tests for age being 150 years old, which should not happen. Service should throw an error for such input data but instead return status code 202 (Accepted)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1303,6 +1252,25 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1369,16 +1337,25 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1397,6 +1374,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1405,22 +1397,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1646,8 +1622,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1670,10 +1646,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1701,13 +1677,13 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1730,8 +1706,8 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1755,8 +1731,8 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,8 +1756,8 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1794,8 +1770,8 @@
       <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>123</v>
+      <c r="J5" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -1808,8 +1784,8 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1833,8 +1809,8 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1847,8 +1823,8 @@
       <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>124</v>
+      <c r="J7" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -1861,8 +1837,8 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1887,8 +1863,8 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1913,8 +1889,8 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1939,8 +1915,8 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1965,8 +1941,8 @@
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1990,8 +1966,8 @@
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2004,8 +1980,8 @@
       <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>125</v>
+      <c r="J13" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -2018,8 +1994,8 @@
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2043,8 +2019,8 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2057,11 +2033,11 @@
       <c r="I15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="J15" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2071,8 +2047,8 @@
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2085,8 +2061,8 @@
       <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>127</v>
+      <c r="J16" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2098,6 +2074,7 @@
     <mergeCell ref="E2:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2109,13 +2086,13 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="76.77734375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="76.77734375" customWidth="1"/>
     <col min="5" max="5" width="56.88671875" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" customWidth="1"/>
@@ -2133,10 +2110,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2164,11 +2141,11 @@
       <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>137</v>
+      <c r="D2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>47</v>
@@ -2193,8 +2170,8 @@
       <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2207,8 +2184,8 @@
       <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>128</v>
+      <c r="J3" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2221,8 +2198,8 @@
       <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2246,8 +2223,8 @@
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2271,8 +2248,8 @@
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2296,8 +2273,8 @@
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2321,8 +2298,8 @@
       <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2335,8 +2312,8 @@
       <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>129</v>
+      <c r="J8" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2349,8 +2326,8 @@
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2374,8 +2351,8 @@
       <c r="C10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2388,8 +2365,8 @@
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>130</v>
+      <c r="J10" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2402,8 +2379,8 @@
       <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2427,8 +2404,8 @@
       <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2452,8 +2429,8 @@
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2477,8 +2454,8 @@
       <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2502,8 +2479,8 @@
       <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2527,8 +2504,8 @@
       <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2541,8 +2518,8 @@
       <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>131</v>
+      <c r="J16" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2555,8 +2532,8 @@
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2569,8 +2546,8 @@
       <c r="I17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>126</v>
+      <c r="J17" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2583,8 +2560,8 @@
       <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2597,8 +2574,8 @@
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>127</v>
+      <c r="J18" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2595,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2640,10 +2617,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2671,11 +2648,11 @@
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>138</v>
+      <c r="D2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>72</v>
@@ -2700,8 +2677,8 @@
       <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2725,8 +2702,8 @@
       <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2750,9 +2727,9 @@
       <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="12" t="s">
-        <v>139</v>
+      <c r="D5" s="13"/>
+      <c r="E5" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>80</v>
@@ -2777,8 +2754,8 @@
       <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1" t="s">
         <v>80</v>
       </c>
@@ -2802,8 +2779,8 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2816,8 +2793,8 @@
       <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>132</v>
+      <c r="J7" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,8 +2807,8 @@
       <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2844,8 +2821,8 @@
       <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>133</v>
+      <c r="J8" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2858,8 +2835,8 @@
       <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2883,8 +2860,8 @@
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="1" t="s">
         <v>80</v>
       </c>
@@ -2908,8 +2885,8 @@
       <c r="C11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="1" t="s">
         <v>80</v>
       </c>
@@ -2933,8 +2910,8 @@
       <c r="C12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="1" t="s">
         <v>80</v>
       </c>
@@ -2958,8 +2935,8 @@
       <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="1" t="s">
         <v>80</v>
       </c>
@@ -2983,8 +2960,8 @@
       <c r="C14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
@@ -3008,8 +2985,8 @@
       <c r="C15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
@@ -3033,8 +3010,8 @@
       <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
@@ -3058,8 +3035,8 @@
       <c r="C17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="1" t="s">
         <v>80</v>
       </c>
@@ -3083,8 +3060,8 @@
       <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="1" t="s">
         <v>80</v>
       </c>
@@ -3097,8 +3074,8 @@
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>108</v>
+      <c r="J18" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3106,13 +3083,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="1" t="s">
         <v>80</v>
       </c>
@@ -3125,8 +3102,8 @@
       <c r="I19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>134</v>
+      <c r="J19" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3134,13 +3111,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
@@ -3153,8 +3130,8 @@
       <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>113</v>
+      <c r="J20" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3172,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A35A641-0413-45C4-A68E-79C066FA7DA1}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3200,10 +3177,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -3222,23 +3199,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -3251,12 +3228,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="20"/>
       <c r="C3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>129</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" t="s">
@@ -3268,12 +3245,12 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="20"/>
       <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="D4" s="13"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" t="s">
@@ -3285,12 +3262,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="20"/>
       <c r="C5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" t="s">
@@ -3302,12 +3279,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="20"/>
       <c r="C6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" t="s">
@@ -3319,12 +3296,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="20"/>
       <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" t="s">
@@ -3336,12 +3313,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="20"/>
       <c r="C8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" t="s">
@@ -3353,12 +3330,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="20"/>
       <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" t="s">
@@ -3370,15 +3347,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="20"/>
       <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -3387,17 +3364,17 @@
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J10" t="s">
-        <v>201</v>
+      <c r="J10" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="20"/>
       <c r="C11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" t="s">
@@ -3407,17 +3384,17 @@
       <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
-        <v>202</v>
+      <c r="J11" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="20"/>
       <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" t="s">
@@ -3427,22 +3404,22 @@
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J12" t="s">
-        <v>203</v>
+      <c r="J12" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="D13" s="13"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -3453,14 +3430,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" t="s">
@@ -3472,14 +3449,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="D15" s="13"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" t="s">
@@ -3491,19 +3468,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="18">
         <v>2</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3516,12 +3493,12 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="20"/>
       <c r="C17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" t="s">
@@ -3533,12 +3510,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="20"/>
       <c r="C18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" t="s">
@@ -3550,12 +3527,12 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="20"/>
       <c r="C19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="D19" s="13"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" t="s">
@@ -3567,17 +3544,17 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -3586,19 +3563,19 @@
       <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J20" t="s">
-        <v>204</v>
+      <c r="J20" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17" t="s">
-        <v>170</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="D21" s="13"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" t="s">
@@ -3610,12 +3587,12 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="D22" s="13"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" t="s">
@@ -3627,14 +3604,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>153</v>
+      </c>
+      <c r="D23" s="13"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" t="s">
@@ -3646,14 +3623,14 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="D24" s="13"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" t="s">
@@ -3665,19 +3642,19 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="18">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="13"/>
       <c r="E25" s="20"/>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -3688,22 +3665,22 @@
       <c r="I25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J25" t="s">
-        <v>206</v>
+      <c r="J25" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3714,14 +3691,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="13"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" t="s">
@@ -3733,14 +3710,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="13"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" t="s">
@@ -3752,17 +3729,17 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="13"/>
       <c r="E29" s="20"/>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -3773,17 +3750,17 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="20"/>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -3792,24 +3769,24 @@
       <c r="I30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J30" t="s">
-        <v>205</v>
+      <c r="J30" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="18">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="13"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -3822,14 +3799,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="13"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" t="s">
@@ -3841,14 +3818,14 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="13"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" t="s">
@@ -3860,14 +3837,14 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="13"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" t="s">
@@ -3879,17 +3856,17 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>175</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="13"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -3898,19 +3875,19 @@
       <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J35" t="s">
-        <v>207</v>
+      <c r="J35" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18"/>
       <c r="B36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="13"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" t="s">
@@ -3920,19 +3897,19 @@
       <c r="I36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="20" t="s">
-        <v>208</v>
+      <c r="J36" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" t="s">
@@ -3945,14 +3922,14 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="13"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" t="s">
@@ -3966,8 +3943,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E2:E38"/>
     <mergeCell ref="J36:J38"/>
     <mergeCell ref="F31:F34"/>
     <mergeCell ref="F35:F38"/>
@@ -3988,6 +3963,8 @@
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A16:A24"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E2:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" xr:uid="{6CB99DA9-840A-466F-9E38-C8D746EDB85C}"/>
@@ -4004,7 +3981,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4024,10 +4001,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -4050,23 +4027,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -4077,19 +4054,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
@@ -4100,19 +4077,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>13</v>
